--- a/code/content/TOPIC_XLSX/시계열_2.xlsx
+++ b/code/content/TOPIC_XLSX/시계열_2.xlsx
@@ -14,351 +14,402 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>년월</t>
   </si>
   <si>
+    <t>201108</t>
+  </si>
+  <si>
+    <t>201112</t>
+  </si>
+  <si>
+    <t>201103</t>
+  </si>
+  <si>
+    <t>201111</t>
+  </si>
+  <si>
+    <t>201202</t>
+  </si>
+  <si>
+    <t>201107</t>
+  </si>
+  <si>
+    <t>201101</t>
+  </si>
+  <si>
+    <t>201104</t>
+  </si>
+  <si>
+    <t>201203</t>
+  </si>
+  <si>
+    <t>201109</t>
+  </si>
+  <si>
+    <t>201110</t>
+  </si>
+  <si>
+    <t>201201</t>
+  </si>
+  <si>
+    <t>201012</t>
+  </si>
+  <si>
+    <t>201212</t>
+  </si>
+  <si>
+    <t>201301</t>
+  </si>
+  <si>
+    <t>201011</t>
+  </si>
+  <si>
+    <t>201210</t>
+  </si>
+  <si>
+    <t>200912</t>
+  </si>
+  <si>
+    <t>201312</t>
+  </si>
+  <si>
+    <t>201204</t>
+  </si>
+  <si>
+    <t>201302</t>
+  </si>
+  <si>
+    <t>201106</t>
+  </si>
+  <si>
+    <t>201211</t>
+  </si>
+  <si>
+    <t>201009</t>
+  </si>
+  <si>
+    <t>201404</t>
+  </si>
+  <si>
+    <t>201004</t>
+  </si>
+  <si>
+    <t>201001</t>
+  </si>
+  <si>
+    <t>201303</t>
+  </si>
+  <si>
+    <t>201209</t>
+  </si>
+  <si>
+    <t>201307</t>
+  </si>
+  <si>
+    <t>201002</t>
+  </si>
+  <si>
+    <t>201309</t>
+  </si>
+  <si>
+    <t>201007</t>
+  </si>
+  <si>
+    <t>201005</t>
+  </si>
+  <si>
+    <t>201010</t>
+  </si>
+  <si>
+    <t>201102</t>
+  </si>
+  <si>
+    <t>201205</t>
+  </si>
+  <si>
+    <t>200806</t>
+  </si>
+  <si>
+    <t>201208</t>
+  </si>
+  <si>
+    <t>200909</t>
+  </si>
+  <si>
+    <t>201311</t>
+  </si>
+  <si>
+    <t>201308</t>
+  </si>
+  <si>
+    <t>201105</t>
+  </si>
+  <si>
+    <t>201207</t>
+  </si>
+  <si>
+    <t>201008</t>
+  </si>
+  <si>
+    <t>201310</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>200805</t>
+  </si>
+  <si>
+    <t>201808</t>
+  </si>
+  <si>
+    <t>201406</t>
+  </si>
+  <si>
+    <t>201402</t>
+  </si>
+  <si>
+    <t>201304</t>
+  </si>
+  <si>
+    <t>201305</t>
+  </si>
+  <si>
+    <t>201403</t>
+  </si>
+  <si>
+    <t>201006</t>
+  </si>
+  <si>
+    <t>201306</t>
+  </si>
+  <si>
+    <t>201206</t>
+  </si>
+  <si>
+    <t>201805</t>
+  </si>
+  <si>
+    <t>200901</t>
+  </si>
+  <si>
+    <t>200804</t>
+  </si>
+  <si>
     <t>201807</t>
   </si>
   <si>
-    <t>201808</t>
-  </si>
-  <si>
-    <t>201805</t>
+    <t>201712</t>
+  </si>
+  <si>
+    <t>200904</t>
+  </si>
+  <si>
+    <t>200908</t>
+  </si>
+  <si>
+    <t>201809</t>
+  </si>
+  <si>
+    <t>201405</t>
+  </si>
+  <si>
+    <t>201804</t>
+  </si>
+  <si>
+    <t>201401</t>
+  </si>
+  <si>
+    <t>201701</t>
+  </si>
+  <si>
+    <t>201811</t>
+  </si>
+  <si>
+    <t>201810</t>
   </si>
   <si>
     <t>201806</t>
   </si>
   <si>
+    <t>201801</t>
+  </si>
+  <si>
+    <t>201711</t>
+  </si>
+  <si>
+    <t>201903</t>
+  </si>
+  <si>
+    <t>201607</t>
+  </si>
+  <si>
+    <t>200808</t>
+  </si>
+  <si>
+    <t>200905</t>
+  </si>
+  <si>
+    <t>201902</t>
+  </si>
+  <si>
+    <t>200810</t>
+  </si>
+  <si>
+    <t>200906</t>
+  </si>
+  <si>
+    <t>201901</t>
+  </si>
+  <si>
+    <t>201511</t>
+  </si>
+  <si>
+    <t>201508</t>
+  </si>
+  <si>
+    <t>200910</t>
+  </si>
+  <si>
+    <t>200807</t>
+  </si>
+  <si>
+    <t>200907</t>
+  </si>
+  <si>
+    <t>201703</t>
+  </si>
+  <si>
+    <t>201812</t>
+  </si>
+  <si>
+    <t>201702</t>
+  </si>
+  <si>
+    <t>201509</t>
+  </si>
+  <si>
+    <t>201802</t>
+  </si>
+  <si>
+    <t>200911</t>
+  </si>
+  <si>
+    <t>201611</t>
+  </si>
+  <si>
+    <t>200809</t>
+  </si>
+  <si>
+    <t>201410</t>
+  </si>
+  <si>
+    <t>201503</t>
+  </si>
+  <si>
     <t>201803</t>
   </si>
   <si>
-    <t>201804</t>
-  </si>
-  <si>
-    <t>201801</t>
-  </si>
-  <si>
-    <t>201810</t>
-  </si>
-  <si>
-    <t>201809</t>
+    <t>200812</t>
+  </si>
+  <si>
+    <t>201407</t>
+  </si>
+  <si>
+    <t>201412</t>
+  </si>
+  <si>
+    <t>200811</t>
+  </si>
+  <si>
+    <t>201601</t>
+  </si>
+  <si>
+    <t>201501</t>
+  </si>
+  <si>
+    <t>201409</t>
+  </si>
+  <si>
+    <t>200903</t>
+  </si>
+  <si>
+    <t>201606</t>
+  </si>
+  <si>
+    <t>201510</t>
+  </si>
+  <si>
+    <t>201704</t>
+  </si>
+  <si>
+    <t>201709</t>
   </si>
   <si>
     <t>201708</t>
   </si>
   <si>
-    <t>201407</t>
-  </si>
-  <si>
-    <t>201101</t>
-  </si>
-  <si>
-    <t>201712</t>
-  </si>
-  <si>
-    <t>201702</t>
-  </si>
-  <si>
-    <t>201301</t>
-  </si>
-  <si>
-    <t>201108</t>
-  </si>
-  <si>
-    <t>201812</t>
-  </si>
-  <si>
-    <t>200810</t>
-  </si>
-  <si>
-    <t>201210</t>
-  </si>
-  <si>
-    <t>201902</t>
-  </si>
-  <si>
-    <t>201209</t>
-  </si>
-  <si>
-    <t>201903</t>
-  </si>
-  <si>
-    <t>201103</t>
-  </si>
-  <si>
-    <t>201704</t>
-  </si>
-  <si>
-    <t>201104</t>
-  </si>
-  <si>
-    <t>201008</t>
-  </si>
-  <si>
-    <t>201107</t>
-  </si>
-  <si>
-    <t>201112</t>
-  </si>
-  <si>
-    <t>201208</t>
-  </si>
-  <si>
-    <t>201011</t>
-  </si>
-  <si>
-    <t>201212</t>
-  </si>
-  <si>
-    <t>201309</t>
-  </si>
-  <si>
-    <t>201109</t>
-  </si>
-  <si>
-    <t>201204</t>
-  </si>
-  <si>
-    <t>201206</t>
-  </si>
-  <si>
-    <t>201211</t>
-  </si>
-  <si>
-    <t>201009</t>
-  </si>
-  <si>
-    <t>201302</t>
-  </si>
-  <si>
-    <t>201404</t>
-  </si>
-  <si>
-    <t>200804</t>
+    <t>201707</t>
+  </si>
+  <si>
+    <t>201706</t>
+  </si>
+  <si>
+    <t>201705</t>
+  </si>
+  <si>
+    <t>201505</t>
+  </si>
+  <si>
+    <t>201506</t>
   </si>
   <si>
     <t>201610</t>
   </si>
   <si>
+    <t>201512</t>
+  </si>
+  <si>
+    <t>201710</t>
+  </si>
+  <si>
+    <t>201408</t>
+  </si>
+  <si>
+    <t>201502</t>
+  </si>
+  <si>
     <t>201612</t>
   </si>
   <si>
-    <t>201703</t>
-  </si>
-  <si>
-    <t>201901</t>
-  </si>
-  <si>
-    <t>201111</t>
-  </si>
-  <si>
-    <t>201705</t>
-  </si>
-  <si>
-    <t>200909</t>
-  </si>
-  <si>
-    <t>201201</t>
-  </si>
-  <si>
-    <t>201110</t>
-  </si>
-  <si>
-    <t>201105</t>
-  </si>
-  <si>
-    <t>201706</t>
-  </si>
-  <si>
-    <t>201707</t>
-  </si>
-  <si>
-    <t>201811</t>
-  </si>
-  <si>
-    <t>201006</t>
-  </si>
-  <si>
-    <t>201004</t>
-  </si>
-  <si>
-    <t>201003</t>
+    <t>201603</t>
+  </si>
+  <si>
+    <t>200902</t>
   </si>
   <si>
     <t>201605</t>
   </si>
   <si>
+    <t>201507</t>
+  </si>
+  <si>
+    <t>201608</t>
+  </si>
+  <si>
     <t>201609</t>
   </si>
   <si>
-    <t>200910</t>
+    <t>201602</t>
   </si>
   <si>
     <t>201504</t>
   </si>
   <si>
-    <t>201310</t>
-  </si>
-  <si>
-    <t>201202</t>
-  </si>
-  <si>
-    <t>200905</t>
-  </si>
-  <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>200904</t>
-  </si>
-  <si>
-    <t>201711</t>
-  </si>
-  <si>
-    <t>201012</t>
-  </si>
-  <si>
-    <t>201710</t>
-  </si>
-  <si>
-    <t>201505</t>
-  </si>
-  <si>
-    <t>200808</t>
-  </si>
-  <si>
-    <t>201305</t>
-  </si>
-  <si>
-    <t>201401</t>
-  </si>
-  <si>
-    <t>201312</t>
-  </si>
-  <si>
-    <t>201306</t>
-  </si>
-  <si>
-    <t>201203</t>
-  </si>
-  <si>
-    <t>201507</t>
-  </si>
-  <si>
-    <t>200809</t>
-  </si>
-  <si>
-    <t>200811</t>
-  </si>
-  <si>
-    <t>201311</t>
-  </si>
-  <si>
-    <t>200812</t>
-  </si>
-  <si>
-    <t>201511</t>
-  </si>
-  <si>
-    <t>201701</t>
-  </si>
-  <si>
-    <t>201106</t>
-  </si>
-  <si>
-    <t>200906</t>
-  </si>
-  <si>
-    <t>200912</t>
-  </si>
-  <si>
-    <t>201412</t>
-  </si>
-  <si>
-    <t>201303</t>
-  </si>
-  <si>
-    <t>201410</t>
-  </si>
-  <si>
-    <t>200806</t>
-  </si>
-  <si>
-    <t>201608</t>
-  </si>
-  <si>
-    <t>201508</t>
-  </si>
-  <si>
-    <t>201502</t>
-  </si>
-  <si>
-    <t>201402</t>
-  </si>
-  <si>
-    <t>201207</t>
-  </si>
-  <si>
-    <t>201602</t>
-  </si>
-  <si>
-    <t>201406</t>
-  </si>
-  <si>
-    <t>201802</t>
-  </si>
-  <si>
-    <t>200805</t>
-  </si>
-  <si>
-    <t>200902</t>
-  </si>
-  <si>
-    <t>200807</t>
-  </si>
-  <si>
-    <t>201503</t>
-  </si>
-  <si>
-    <t>200911</t>
-  </si>
-  <si>
-    <t>201001</t>
-  </si>
-  <si>
-    <t>201010</t>
-  </si>
-  <si>
-    <t>201205</t>
-  </si>
-  <si>
-    <t>201512</t>
-  </si>
-  <si>
-    <t>201510</t>
-  </si>
-  <si>
-    <t>201509</t>
-  </si>
-  <si>
-    <t>201304</t>
-  </si>
-  <si>
-    <t>201403</t>
-  </si>
-  <si>
-    <t>201405</t>
-  </si>
-  <si>
-    <t>201408</t>
-  </si>
-  <si>
     <t>201411</t>
-  </si>
-  <si>
-    <t>201307</t>
   </si>
 </sst>
 </file>
@@ -716,7 +767,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -735,7 +786,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -743,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -751,7 +802,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -759,7 +810,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -767,7 +818,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -775,7 +826,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -783,7 +834,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -791,7 +842,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -799,7 +850,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -807,7 +858,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -815,7 +866,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -823,7 +874,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -831,7 +882,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -839,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -847,7 +898,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -855,7 +906,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -863,7 +914,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -871,7 +922,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -879,7 +930,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -887,7 +938,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -895,7 +946,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -903,7 +954,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -911,7 +962,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -919,7 +970,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -927,7 +978,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -935,7 +986,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -943,7 +994,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -951,7 +1002,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -959,7 +1010,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -967,7 +1018,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -975,7 +1026,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -983,7 +1034,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -991,7 +1042,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -999,7 +1050,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1007,7 +1058,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1015,7 +1066,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1023,7 +1074,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1031,7 +1082,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1039,7 +1090,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1047,7 +1098,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1055,7 +1106,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1063,7 +1114,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1071,7 +1122,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1079,7 +1130,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1087,7 +1138,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1095,7 +1146,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1103,7 +1154,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1111,7 +1162,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1119,7 +1170,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1127,7 +1178,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1135,7 +1186,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1143,7 +1194,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1151,7 +1202,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1159,7 +1210,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1167,7 +1218,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1175,7 +1226,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1183,7 +1234,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1191,7 +1242,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1199,7 +1250,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1207,7 +1258,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1215,7 +1266,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1223,7 +1274,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1231,7 +1282,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1239,7 +1290,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1247,7 +1298,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1255,7 +1306,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1263,7 +1314,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1271,7 +1322,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1279,7 +1330,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1287,7 +1338,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1295,7 +1346,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1303,7 +1354,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1311,7 +1362,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1319,7 +1370,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1327,7 +1378,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1335,7 +1386,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1343,7 +1394,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1351,7 +1402,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1359,7 +1410,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1367,7 +1418,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1375,7 +1426,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1383,7 +1434,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1391,7 +1442,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1399,7 +1450,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1407,7 +1458,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1415,7 +1466,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1423,7 +1474,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1431,7 +1482,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1439,7 +1490,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1447,7 +1498,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1455,7 +1506,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1463,7 +1514,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1471,7 +1522,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1479,7 +1530,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1487,7 +1538,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1495,7 +1546,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1503,7 +1554,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1511,7 +1562,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1519,7 +1570,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1527,7 +1578,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1535,7 +1586,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1543,7 +1594,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1551,7 +1602,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1559,7 +1610,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1567,7 +1618,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1575,7 +1626,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1583,7 +1634,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1591,7 +1642,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1599,7 +1650,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1607,7 +1658,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1615,7 +1666,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1623,7 +1674,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1631,7 +1682,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1639,6 +1690,142 @@
         <v>114</v>
       </c>
       <c r="B115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132">
         <v>1</v>
       </c>
     </row>
